--- a/ky/downloads/data-excel/6.1.1.2b.xlsx
+++ b/ky/downloads/data-excel/6.1.1.2b.xlsx
@@ -515,20 +515,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="36.42578125" style="8" customWidth="1"/>
-    <col min="4" max="8" width="8.7109375" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="3" width="36.140625" style="8" customWidth="1"/>
+    <col min="4" max="20" width="8.5703125" style="8" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
@@ -544,7 +542,7 @@
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -555,7 +553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -575,8 +573,9 @@
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
     </row>
-    <row r="4" spans="1:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>8</v>
       </c>
@@ -634,8 +633,11 @@
       <c r="S4" s="11">
         <v>2022</v>
       </c>
+      <c r="T4" s="11">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>11</v>
       </c>
@@ -693,8 +695,11 @@
       <c r="S5" s="13">
         <v>1.8</v>
       </c>
+      <c r="T5" s="13">
+        <v>1.4</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>12</v>
       </c>
@@ -751,6 +756,9 @@
       </c>
       <c r="S6" s="4">
         <v>8.4</v>
+      </c>
+      <c r="T6" s="4">
+        <v>8.1999999999999993</v>
       </c>
     </row>
   </sheetData>
